--- a/diagramme/SpielmanagementTests.xlsx
+++ b/diagramme/SpielmanagementTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76fd2fc772ef66ad/Dokumente/UNI/Anfängerpraktikum/anfaengerpraktikum/diagramme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\UNI\S4\ComputerspielEntwicklung\DasSpiel\anfaengerpraktikum\diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DB114E441178AC67DF45A5E13CB14693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511E94EC-F821-44FD-B737-61D93C57C1E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA7FDB-F120-4E82-AAB5-478B0D2F1FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Anforderung</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>Der Benutzer kann im Menü einen gespeicherten Spielstand laden.</t>
+  </si>
+  <si>
+    <t>Tests für Spielmanagement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +118,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,16 +178,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,108 +481,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="127.90625" customWidth="1"/>
-    <col min="3" max="3" width="128.36328125" customWidth="1"/>
-    <col min="4" max="4" width="108.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>